--- a/DUNGCA.xlsx
+++ b/DUNGCA.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1\Desktop\4th Year\Software Engineering\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ACTIVITIES</t>
   </si>
@@ -37,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">Research about forwaring processes </t>
+  </si>
+  <si>
+    <t>Research about Gannt Chart and How to Make them</t>
+  </si>
+  <si>
+    <t>Created Gantt Chart on Project Libre</t>
   </si>
 </sst>
 </file>
@@ -86,6 +97,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -133,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +456,40 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43700</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43701</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43701</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43702</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DUNGCA.xlsx
+++ b/DUNGCA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ACTIVITIES</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Created Gantt Chart on Project Libre</t>
+  </si>
+  <si>
+    <t>Research about VAT, Tariff, Duties and Excise Tax</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,10 +464,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>43700</v>
+        <v>43731</v>
       </c>
       <c r="C4" s="1">
-        <v>43701</v>
+        <v>43732</v>
       </c>
       <c r="D4" s="2">
         <v>0.56944444444444442</v>
@@ -478,16 +481,33 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>43701</v>
+        <v>43732</v>
       </c>
       <c r="C5" s="1">
-        <v>43702</v>
+        <v>43733</v>
       </c>
       <c r="D5" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="E5" s="2">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43740</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43741</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/DUNGCA.xlsx
+++ b/DUNGCA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ACTIVITIES</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Research about VAT, Tariff, Duties and Excise Tax</t>
+  </si>
+  <si>
+    <t>Helping with system UI</t>
+  </si>
+  <si>
+    <t>Helping with Documentation of the System</t>
+  </si>
+  <si>
+    <t>Helping with further development of system UI</t>
   </si>
 </sst>
 </file>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +516,57 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E6" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43747</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43748</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43753</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43755</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43765</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43766</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
